--- a/MakeUp.HS/Resources/匯入學年科目成績(補考成績).xlsx
+++ b/MakeUp.HS/Resources/匯入學年科目成績(補考成績).xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\MakeUp.HS\MakeUp.HS\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA98D62-FC6A-42F3-8234-EC9184097AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DD07F7-3E4F-4AD7-BBDA-D9BCA26F3E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="1080" windowWidth="27120" windowHeight="14400" xr2:uid="{FC969F7C-5D37-411E-91E7-F13E9934AB06}"/>
   </bookViews>
   <sheets>
     <sheet name="學年科目成績" sheetId="1" r:id="rId1"/>
+    <sheet name="無補考分數清單" sheetId="2" r:id="rId2"/>
+    <sheet name="缺考清單" sheetId="3" r:id="rId3"/>
+    <sheet name="輸入非0~100值" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
   <si>
     <t>學號</t>
   </si>
@@ -69,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +86,13 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -493,4 +503,151 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4380813-E6AC-48D6-B539-BB8CC18B7E01}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BFB6C3-AC61-4843-BA8C-3594410AC2F8}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F8172-7C9B-4D95-85CE-FF1CA808EF71}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>